--- a/medicine/Mort/Divisional_Cemetery/Divisional_Cemetery.xlsx
+++ b/medicine/Mort/Divisional_Cemetery/Divisional_Cemetery.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Divisional Cemetery est un cimetière militaire britannique de la Première Guerre mondiale situé en Belgique à 2 km à l'ouest du centre d'Ypres et à 2,6 km à l'est de l'église de Vlamertinge.
 Le cimetière a été conçu par Edwin Lutyens et est entretenu par la Commonwealth War Graves Commission. Le site a une superficie de 1 430 m2 et 283 personnes y sont enterrées.
@@ -512,7 +524,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le château voisin de Rossières a été utilisé par différentes divisions comme quartier général, d'où le nom de « Divisional Cemetery » (« Cimetière divisionnaire »). Un certain nombre de victimes belges y ont été enterrées en 1914 ; leurs tombes ont maintenant été enlevées[réf. souhaitée]. Le cimetière a été utilisé par les troupes britanniques de fin avril 1915 à mai 1916. Il contient une tombe collective où reposent 23 hommes du Duke of Wellington's (West Riding) Regiment tués lors d'une attaque au gaz allemand sur la "colline 60", le 5 mai 1915. 
 Le cimetière fut réouvert en juillet 1917, pour accueillir des membres d'unités d'artillerie qui périrent lors de la Troisième bataille d'Ypres, ces nouvelles inhumations poussèrent le cimetière à s'agrandir considérablement. 
